--- a/03.存储过程说明文档.xlsx
+++ b/03.存储过程说明文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\hrbzls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BC07E4-138F-4A88-BADE-C3FE9E68B301}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFBCE81-C9A2-4088-A62E-8820083C7916}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{51161C84-1164-4EBA-8AFF-20CD3B75806B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="116">
   <si>
     <t>生成建账工单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,15 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">pg_paid.poscustforys(p_yhid     in varchar2,
-             p_arstr    in varchar2,
-             p_oper     in varchar2,
-             p_payway   in varchar2,
-             p_payment  in varchar2,
-             p_pid      out varchar2) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>营业厅收费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,15 +267,6 @@
     <t>p_pid                   实收流水编码
 p_oper                销帐员，柜台缴费时销帐人员与收款员统一
  o_pid_reverse    输出冲正实收流水编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  p_yhid          用户编码
-  p_arstr          欠费流水号，多个流水号用逗号分隔，例如：0000012726,70105341
-  p_oper          销帐员，柜台缴费时销帐人员与收款员统一
-  p_payway      付款方式(XJ-现金 ZP-支票 MZ-抹账 DC-倒存)
-  p_payment    实收，即为（付款-找零），付款与找零在前台计算和校验
-  p_pid             返回交易流水号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -353,13 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pg_paid.poscustforys_pj_pl(p_pjids varchar2,
-             p_cply     varchar2,
-             p_oper     varchar2,
-             o_log      out varchar2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按票据销账 批量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -397,20 +372,6 @@
     <t>pg_dhz.dhgl_gd(p_reno varchar2, 
         p_oper in varchar2, 
         o_log out varchar2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pg_dhz.dhgl_xz(p_rlids varchar2, 
-        p_oper varchar2, 
-        o_log out varchar2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收费员结账 生成建账工单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收费员结账 删除建账工单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -459,17 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>p_pjida        票据编码,多个票据按逗号分隔
-p_cply         出票来源：SMSF 上门收费 BJSF 补缴收费
-p_oper        销帐员，柜台缴费时销帐人员与收款员统一
-o_log          输出日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_reno       建账工单编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>p_userid    收费员编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -499,6 +449,172 @@
     <t>pg_rectrans.rectrans_gd(p_reno varchar2, 
         p_gdtype varchar2, 
         o_log out varchar2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单算费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  简单算费，仅供抄表时参考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔算费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg_cb_cost.calculate_simp(p_mrid in bs_meterread.mrid%type,
+             o_mrrecje01 out number,
+             o_mrrecje02 out number,
+             o_mrrecje03 out number,
+             o_mrrecje04 out number,
+             o_mrsumje   out number)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg_cb_cost.calculatebf(p_mrid in bs_meterread.mrid%type,
+             p_caltype in varchar2,    -- 01 虚拟算费; 02 正式算费
+             o_mrrecje01 out bs_meterread.mrrecje01%type,
+             o_mrrecje02 out bs_meterread.mrrecje02%type,
+             o_mrrecje03 out bs_meterread.mrrecje03%type,
+             o_mrrecje04 out bs_meterread.mrrecje04%type,
+             o_mrsumje   out number,
+             err_log out varchar2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg_cb_cost.autosubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg_cb_cost.submit(p_mrbfids in varchar2, log out varchar2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算费 - 按表册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算费 - 批量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算费 - 单笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆坏帐审批 - 批量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg_dhz.dhgl_gd_pl(p_reno varchar2, 
+        p_oper in varchar2, 
+        o_log out varchar2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg_dhz.dhgl_xz(p_rlids varchar2, 
+        p_oper varchar2, 
+        o_log out varchar2, 
+        o_status out varchar2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_rlids        应收账编码，多个用逗号分隔
+p_oper       操作员编码
+o_log          输出日志
+o_status     执行状态（000 失败，999 成功）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg_paid.poscustforys_pj_pl(p_pjids varchar2,
+             p_cply     varchar2,
+             p_payway   varchar2,
+             p_oper     varchar2,
+             o_log      out varchar2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_pjida        票据编码,多个票据按逗号分隔
+p_cply         出票来源：SMSF 上门收费 BJSF 补缴收费
+p_payway   付款方式(XJ-现金 ZP-支票 MZ-抹账 DC-倒存)
+p_oper        销帐员，柜台缴费时销帐人员与收款员统一
+o_log          输出日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已废弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费员结账 生成结账工单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费员结账 删除结账工单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_reno       结账工单编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费员结账 结账工单处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg_chkout.jzgd_sp(p_reno varchar2, 
+    o_log out varchar2, 
+    o_status out varchar2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_reno       工单流水号
+o_log          输出日志
+o_status     执行状态（000 失败，999 成功）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费员结账 对账工单处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg_chkout.dzgd_sp(p_reno varchar2, 
+    o_log out varchar2, 
+    o_status out varchar2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  procedure poscustforys(p_yhid     in varchar2,
+             p_oper     in varchar2,
+             p_payway   in varchar2,
+             p_payment  in varchar2,
+             p_pmzph    in varchar2,
+             p_pmzpje   in varchar2,
+             p_pmkhname in varchar2,
+             p_pmkhaccont  in varchar2,
+             p_pmkhadr  in varchar2,
+             o_log      out varchar2,
+             o_status   out varchar2) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  p_yhid          用户编码
+  p_oper          销帐员，柜台缴费时销帐人员与收款员统一
+  p_payway        付款方式(XJ-现金 ZP-支票 MZ-抹账 DC-倒存)
+  p_payment       实收，即为（付款-找零），付款与找零在前台计算和校验
+  p_pmzph         支票号或倒存号
+  p_pmzpje        支票金额
+  p_pmkhname      开户行名称
+  p_pmkhaccont    开户行账号
+  p_pmkhadr       开户行地址
+  o_log           输出日志
+  o_status        执行状态（000 失败，999 成功）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +622,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,16 +653,28 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -569,13 +697,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -599,6 +740,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -920,25 +1085,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A426D4-F517-42A7-A289-4826DB7D082A}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="52.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="51" style="2" customWidth="1"/>
     <col min="5" max="16384" width="31.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>45</v>
@@ -949,248 +1114,366 @@
       <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="81" x14ac:dyDescent="0.2">
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="81" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="54" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="108" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="81" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="1"/>
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1237,7 +1520,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1255,7 +1538,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1271,7 +1554,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1287,7 +1570,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1303,7 +1586,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1321,7 +1604,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1337,7 +1620,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1355,7 +1638,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1371,7 +1654,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1385,7 +1668,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1403,7 +1686,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
